--- a/FORMATOS PRACTICAS/Datos_estudiantes.xlsx
+++ b/FORMATOS PRACTICAS/Datos_estudiantes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docente_istae_info_plk\IPA2025\4.PRACTICAS\FORMATO DE INGRESO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sistema_integral_10Agosto\FORMATOS PRACTICAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C1999A-C97E-4E90-9292-27AA5934B6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260FA37-55A6-4856-A640-B22034244950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DE3777D-EE97-4281-B57D-DB5207F38A35}"/>
   </bookViews>
@@ -441,18 +441,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -467,21 +455,12 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -502,11 +481,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF4B16C-E717-4D6C-B16B-8E6737C9F60C}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,10 +850,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
@@ -874,10 +874,10 @@
       <c r="C2" s="5">
         <v>803934256</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
@@ -898,10 +898,10 @@
       <c r="C3" s="5">
         <v>1729274298</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
@@ -922,10 +922,10 @@
       <c r="C4" s="8">
         <v>805248960</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -946,10 +946,10 @@
       <c r="C5" s="5">
         <v>1004498661</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
@@ -970,10 +970,10 @@
       <c r="C6" s="5">
         <v>850499542</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
@@ -994,10 +994,10 @@
       <c r="C7" s="5">
         <v>1725205577</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
@@ -1018,10 +1018,10 @@
       <c r="C8" s="5">
         <v>803332790</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1034,127 +1034,132 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>45789</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="28"/>
-      <c r="E16" s="29" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="25" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="B18:B23"/>
@@ -1162,11 +1167,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
